--- a/Quest checklist.xlsx
+++ b/Quest checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silen\Desktop\University\comp3004\COMP3004 Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F4766C-71AD-4974-BC45-E1CC7D40AFAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B93A5777-B125-403C-93F7-4F9986147E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="78">
   <si>
     <t>Checklist for functionality of Quest</t>
   </si>
@@ -322,6 +322,12 @@
   </si>
   <si>
     <t>we request at the beginning of the first stage, there is no practical reason to drop out later when one could simply play no cards in a stage and get kicked out that way</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>in theory</t>
   </si>
 </sst>
 </file>
@@ -803,8 +809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -910,7 +916,9 @@
       <c r="A13" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="6"/>
+      <c r="B13" s="6" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
@@ -969,7 +977,9 @@
       <c r="A22" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="6"/>
+      <c r="B22" s="6" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B23" s="6"/>
@@ -1035,7 +1045,9 @@
       <c r="A32" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B32" s="6"/>
+      <c r="B32" s="6" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
@@ -1047,7 +1059,9 @@
       <c r="A35" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="6"/>
+      <c r="B35" s="6" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
@@ -1065,7 +1079,9 @@
       <c r="A38" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B38" s="6"/>
+      <c r="B38" s="6" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B39" s="6"/>
@@ -1074,7 +1090,9 @@
       <c r="A40" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B40" s="6"/>
+      <c r="B40" s="6" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
@@ -1162,7 +1180,9 @@
       <c r="A59" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B59" s="6"/>
+      <c r="B59" s="6" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
@@ -1250,43 +1270,57 @@
       <c r="A76" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B76" s="6"/>
+      <c r="B76" s="6" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B77" s="6"/>
+      <c r="B77" s="6" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B78" s="6"/>
+      <c r="B78" s="6" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B79" s="6"/>
+      <c r="B79" s="6" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B80" s="6"/>
+      <c r="B80" s="6" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B81" s="6"/>
+      <c r="B81" s="6" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B82" s="6"/>
+      <c r="B82" s="6" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">

--- a/Quest checklist.xlsx
+++ b/Quest checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silen\Desktop\University\comp3004\COMP3004 Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B93A5777-B125-403C-93F7-4F9986147E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{749AD85E-347F-4A3A-A7EB-E5B3DF891222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -327,7 +327,7 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>in theory</t>
+    <t>claimed</t>
   </si>
 </sst>
 </file>
@@ -810,7 +810,7 @@
   <dimension ref="A1:C83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/Quest checklist.xlsx
+++ b/Quest checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silen\Desktop\University\comp3004\COMP3004 Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{749AD85E-347F-4A3A-A7EB-E5B3DF891222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C9D29F4-2260-4121-9575-EC2D1909AB20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="78">
   <si>
     <t>Checklist for functionality of Quest</t>
   </si>
@@ -809,8 +809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -996,7 +996,9 @@
       <c r="A25" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="6"/>
+      <c r="B25" s="6" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">

--- a/Quest checklist.xlsx
+++ b/Quest checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silen\Desktop\University\comp3004\COMP3004 Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C9D29F4-2260-4121-9575-EC2D1909AB20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18AED3E-30A7-4459-A576-1737EAB19CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="84">
   <si>
     <t>Checklist for functionality of Quest</t>
   </si>
@@ -328,6 +328,24 @@
   </si>
   <si>
     <t>claimed</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>theres a bug : (</t>
+  </si>
+  <si>
+    <t>its broken : (</t>
+  </si>
+  <si>
+    <t>some functions for them exist but they arent properly implemented in the front end so we took em out</t>
+  </si>
+  <si>
+    <t>exists but broken</t>
+  </si>
+  <si>
+    <t>technically works even if no allies ever get played</t>
   </si>
 </sst>
 </file>
@@ -809,8 +827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -869,7 +887,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>73</v>
+        <v>78</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1051,13 +1072,15 @@
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="6"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>20</v>
       </c>
@@ -1065,19 +1088,23 @@
         <v>76</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="6"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B37" s="6"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>17</v>
       </c>
@@ -1085,10 +1112,10 @@
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B39" s="6"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>19</v>
       </c>
@@ -1096,89 +1123,116 @@
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B41" s="6"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B42" s="6"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B43" s="6"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B43" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B45" s="6"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B45" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B46" s="6"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B46" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B49" s="6"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B50" s="6"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B51" s="6"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B52" s="6"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B52" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B53" s="6"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B54" s="6"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B54" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B56" s="6"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B56" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>30</v>
       </c>
@@ -1186,89 +1240,116 @@
         <v>73</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B60" s="6"/>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B60" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B63" s="6"/>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B63" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B64" s="6"/>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B64" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B65" s="6"/>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B65" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B66" s="6"/>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B66" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B67" s="6"/>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B67" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B68" s="6"/>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B68" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B69" s="6"/>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B69" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B70" s="6"/>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B70" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B71" s="6"/>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B71" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B72" s="6"/>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B72" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B73" s="6"/>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B73" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>50</v>
       </c>
@@ -1276,7 +1357,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>51</v>
       </c>
@@ -1284,15 +1365,18 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>52</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C78" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>53</v>
       </c>
@@ -1300,7 +1384,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>54</v>
       </c>
@@ -1308,7 +1392,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>55</v>
       </c>
@@ -1316,7 +1400,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>57</v>
       </c>
@@ -1324,11 +1408,16 @@
         <v>76</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B83" s="6"/>
+      <c r="B83" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>82</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
